--- a/Data-Société civile/URL.xlsx
+++ b/Data-Société civile/URL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="116"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="128">
   <si>
     <t xml:space="preserve">acteurs </t>
   </si>
@@ -35,15 +35,6 @@
     <t>Christophe Benavent</t>
   </si>
   <si>
-    <t xml:space="preserve">Facilite la vie  </t>
-  </si>
-  <si>
-    <t>interference dans les décisions donc perte de contrôle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notion de paternalisme en politique </t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -62,15 +53,6 @@
     <t>And Lead Us (Not) into Persuasion…? Persuasive Technology and the Ethics of Communication</t>
   </si>
   <si>
-    <t xml:space="preserve">rendre les plateforme plus attractives </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattenisme politique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">alternative a la crise economique </t>
-  </si>
-  <si>
     <t>Christophe Bénavent</t>
   </si>
   <si>
@@ -83,16 +65,7 @@
     <t xml:space="preserve">Jordan Larson </t>
   </si>
   <si>
-    <t>Force les gens à faire des choses contre leur gré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outil pour se faire du bénéfice </t>
-  </si>
-  <si>
     <t>http://tempsreel.nouvelobs.com/rue89/rue89-le-grand-entretien/20160604.RUE3072/tristan-harris-des-millions-d-heures-sont-juste-volees-a-la-vie-des-gens.html</t>
-  </si>
-  <si>
-    <t>kjhoiu</t>
   </si>
   <si>
     <t>Type d'URL</t>
@@ -427,6 +400,15 @@
   </si>
   <si>
     <t>Fidéliser le client, on est manipulés par des concepts fabriqués de toute pièce, les gens dedient leur vie pour faire des etudes sur les persuasives technologies pour gagner de l'agent</t>
+  </si>
+  <si>
+    <t>rendre les plateforme plus attractives , pattenisme politique, alternative a la crise économique</t>
+  </si>
+  <si>
+    <t>Facilite la vie, interference dans les décisions donc perte de contrôle, Notion de paternalisme en politique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force les gens à faire des choses contre leur gré, outil pour se faire du bénéfice </t>
   </si>
 </sst>
 </file>
@@ -503,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,9 +528,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -880,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K40"/>
+  <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,821 +879,755 @@
   <sheetData>
     <row r="2" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="19">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18">
         <v>42491</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
+      <c r="E3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="19"/>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="17">
+        <v>42101</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="17">
+        <v>41773</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="16">
+        <v>42614</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="16">
+        <v>42522</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="16">
+        <v>42795</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="19"/>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="17">
-        <v>42101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18"/>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="17">
-        <v>41773</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="17"/>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="16">
+        <v>42522</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="16">
+        <v>42767</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="16">
+        <v>42125</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="16">
-        <v>42614</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="16">
-        <v>42522</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B16" s="16">
-        <v>42795</v>
+        <v>42491</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="16">
-        <v>42522</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
+      <c r="B18" s="16">
+        <v>42675</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="16">
+        <v>40452</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="16">
-        <v>42767</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B20" s="16">
-        <v>42125</v>
+        <v>42675</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" s="16">
-        <v>42491</v>
+        <v>40909</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
+      </c>
+      <c r="B22" s="16">
+        <v>40848</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B23" s="16">
-        <v>42675</v>
+        <v>38869</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B24" s="16">
-        <v>40452</v>
+        <v>41275</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B25" s="16">
-        <v>42675</v>
+        <v>41365</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B26" s="16">
-        <v>40909</v>
+        <v>41214</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>69</v>
+        <v>23</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="16">
-        <v>40848</v>
+      <c r="B27" s="23">
+        <v>41913</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>70</v>
+        <v>23</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B28" s="16">
-        <v>38869</v>
+        <v>38108</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>73</v>
+        <v>23</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="16">
-        <v>41275</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>76</v>
+        <v>23</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B30" s="16">
-        <v>41365</v>
+        <v>42095</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>78</v>
+        <v>23</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B31" s="16">
-        <v>41214</v>
+        <v>42156</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>96</v>
+        <v>23</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="24">
-        <v>41913</v>
+      <c r="A32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="16">
+        <v>42430</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>99</v>
+        <v>23</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="16">
-        <v>38108</v>
+      <c r="A33" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>102</v>
+        <v>23</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>105</v>
+      <c r="A34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="16">
+        <v>41944</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="16">
-        <v>42095</v>
+        <v>23</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>121</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="16">
-        <v>42156</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" t="s">
-        <v>116</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="16">
-        <v>42430</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="16">
-        <v>41944</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" t="s">
-        <v>133</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A12" r:id="rId3"/>
-    <hyperlink ref="A13" r:id="rId4"/>
-    <hyperlink ref="A14" r:id="rId5"/>
-    <hyperlink ref="A15" r:id="rId6"/>
-    <hyperlink ref="H15" r:id="rId7" tooltip="Alice Maruani" display="http://tempsreel.nouvelobs.com/journaliste/354572/alice-maruani.html"/>
-    <hyperlink ref="A16" r:id="rId8"/>
-    <hyperlink ref="A17" r:id="rId9"/>
-    <hyperlink ref="A19" r:id="rId10"/>
-    <hyperlink ref="A20" r:id="rId11"/>
-    <hyperlink ref="A22" r:id="rId12"/>
-    <hyperlink ref="A23" r:id="rId13"/>
-    <hyperlink ref="H23" r:id="rId14" display="https://www.letemps.ch/auteur/233"/>
-    <hyperlink ref="A31" r:id="rId15"/>
-    <hyperlink ref="A28" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A21" r:id="rId18"/>
-    <hyperlink ref="A24" r:id="rId19"/>
-    <hyperlink ref="A29" r:id="rId20"/>
-    <hyperlink ref="A30" r:id="rId21"/>
-    <hyperlink ref="A27" r:id="rId22"/>
-    <hyperlink ref="A25" r:id="rId23"/>
-    <hyperlink ref="A26" r:id="rId24"/>
-    <hyperlink ref="A32" r:id="rId25"/>
-    <hyperlink ref="A33" r:id="rId26" location="WbYYyw5TzMfcuAmy.97"/>
-    <hyperlink ref="A34" r:id="rId27"/>
-    <hyperlink ref="A35" r:id="rId28"/>
-    <hyperlink ref="A36" r:id="rId29"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A7" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId5"/>
+    <hyperlink ref="A10" r:id="rId6"/>
+    <hyperlink ref="H10" r:id="rId7" tooltip="Alice Maruani" display="http://tempsreel.nouvelobs.com/journaliste/354572/alice-maruani.html"/>
+    <hyperlink ref="A11" r:id="rId8"/>
+    <hyperlink ref="A12" r:id="rId9"/>
+    <hyperlink ref="A14" r:id="rId10"/>
+    <hyperlink ref="A15" r:id="rId11"/>
+    <hyperlink ref="A17" r:id="rId12"/>
+    <hyperlink ref="A18" r:id="rId13"/>
+    <hyperlink ref="H18" r:id="rId14" display="https://www.letemps.ch/auteur/233"/>
+    <hyperlink ref="A26" r:id="rId15"/>
+    <hyperlink ref="A23" r:id="rId16"/>
+    <hyperlink ref="A13" r:id="rId17"/>
+    <hyperlink ref="A16" r:id="rId18"/>
+    <hyperlink ref="A19" r:id="rId19"/>
+    <hyperlink ref="A24" r:id="rId20"/>
+    <hyperlink ref="A25" r:id="rId21"/>
+    <hyperlink ref="A22" r:id="rId22"/>
+    <hyperlink ref="A20" r:id="rId23"/>
+    <hyperlink ref="A21" r:id="rId24"/>
+    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="A28" r:id="rId26" location="WbYYyw5TzMfcuAmy.97"/>
+    <hyperlink ref="A29" r:id="rId27"/>
+    <hyperlink ref="A30" r:id="rId28"/>
+    <hyperlink ref="A31" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
